--- a/artfynd/A 25045-2024 artfynd.xlsx
+++ b/artfynd/A 25045-2024 artfynd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY104"/>
+  <dimension ref="A1:AY108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11777,6 +11777,470 @@
       </c>
       <c r="AY104" t="inlineStr"/>
     </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>131217412</v>
+      </c>
+      <c r="B105" t="n">
+        <v>57064</v>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>102612</v>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Järpe</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Tetrastes bonasia</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>permanent revir</t>
+        </is>
+      </c>
+      <c r="N105" t="inlineStr"/>
+      <c r="P105" t="inlineStr">
+        <is>
+          <t>Garpmesliden-Römyran, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q105" t="n">
+        <v>730512</v>
+      </c>
+      <c r="R105" t="n">
+        <v>7281151</v>
+      </c>
+      <c r="S105" t="n">
+        <v>10</v>
+      </c>
+      <c r="T105" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U105" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V105" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W105" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y105" t="inlineStr">
+        <is>
+          <t>2025-12-29</t>
+        </is>
+      </c>
+      <c r="AA105" t="inlineStr">
+        <is>
+          <t>2025-12-29</t>
+        </is>
+      </c>
+      <c r="AC105" t="inlineStr">
+        <is>
+          <t>En tupp och två höns som satt och plockade björkknoppar. Den dels försumpade kallbäckmiljön med sin gamla kontinuitetsskog är en optimal miljö för arten. Även på vintern hittar de födda i gammelskogen.</t>
+        </is>
+      </c>
+      <c r="AD105" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE105" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG105" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT105" t="inlineStr"/>
+      <c r="AW105" t="inlineStr">
+        <is>
+          <t>Steve Daurer</t>
+        </is>
+      </c>
+      <c r="AX105" t="inlineStr">
+        <is>
+          <t>Steve Daurer</t>
+        </is>
+      </c>
+      <c r="AY105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>131217375</v>
+      </c>
+      <c r="B106" t="n">
+        <v>58043</v>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>103021</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Talltita</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Poecile montanus</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>permanent revir</t>
+        </is>
+      </c>
+      <c r="N106" t="inlineStr"/>
+      <c r="P106" t="inlineStr">
+        <is>
+          <t>Garpmesliden-Römyran, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q106" t="n">
+        <v>730627</v>
+      </c>
+      <c r="R106" t="n">
+        <v>7281017</v>
+      </c>
+      <c r="S106" t="n">
+        <v>10</v>
+      </c>
+      <c r="T106" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U106" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V106" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W106" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y106" t="inlineStr">
+        <is>
+          <t>2025-12-27</t>
+        </is>
+      </c>
+      <c r="AA106" t="inlineStr">
+        <is>
+          <t>2025-12-27</t>
+        </is>
+      </c>
+      <c r="AC106" t="inlineStr">
+        <is>
+          <t>Revirparet</t>
+        </is>
+      </c>
+      <c r="AD106" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE106" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG106" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT106" t="inlineStr"/>
+      <c r="AW106" t="inlineStr">
+        <is>
+          <t>Steve Daurer</t>
+        </is>
+      </c>
+      <c r="AX106" t="inlineStr">
+        <is>
+          <t>Steve Daurer</t>
+        </is>
+      </c>
+      <c r="AY106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>131217371</v>
+      </c>
+      <c r="B107" t="n">
+        <v>57988</v>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>103031</v>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Lavskrika</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Perisoreus infaustus</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>permanent revir</t>
+        </is>
+      </c>
+      <c r="N107" t="inlineStr"/>
+      <c r="P107" t="inlineStr">
+        <is>
+          <t>Garpmesliden-Römyran, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q107" t="n">
+        <v>730751</v>
+      </c>
+      <c r="R107" t="n">
+        <v>7280826</v>
+      </c>
+      <c r="S107" t="n">
+        <v>10</v>
+      </c>
+      <c r="T107" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U107" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V107" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W107" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y107" t="inlineStr">
+        <is>
+          <t>2025-12-27</t>
+        </is>
+      </c>
+      <c r="AA107" t="inlineStr">
+        <is>
+          <t>2025-12-27</t>
+        </is>
+      </c>
+      <c r="AC107" t="inlineStr">
+        <is>
+          <t>En familjegrupp i sitt revir där det har gömt sina matförråd i de hänglavdrapperade gammelgranar så att dexklarar den bistra Lapplandvintern.</t>
+        </is>
+      </c>
+      <c r="AD107" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE107" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG107" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT107" t="inlineStr"/>
+      <c r="AW107" t="inlineStr">
+        <is>
+          <t>Steve Daurer</t>
+        </is>
+      </c>
+      <c r="AX107" t="inlineStr">
+        <is>
+          <t>Steve Daurer</t>
+        </is>
+      </c>
+      <c r="AY107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>131217398</v>
+      </c>
+      <c r="B108" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>hane</t>
+        </is>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>permanent revir</t>
+        </is>
+      </c>
+      <c r="N108" t="inlineStr"/>
+      <c r="P108" t="inlineStr">
+        <is>
+          <t>Garpmesliden-Römyran, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q108" t="n">
+        <v>730857</v>
+      </c>
+      <c r="R108" t="n">
+        <v>7280781</v>
+      </c>
+      <c r="S108" t="n">
+        <v>10</v>
+      </c>
+      <c r="T108" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U108" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V108" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W108" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y108" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="AA108" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="AC108" t="inlineStr">
+        <is>
+          <t>Det noterades tidigare en revirmakerande hanne och typiska hackringar i området. Troligen samma hanne som har revir i den gamla ca 160 åriga kontinuitetsskogen.</t>
+        </is>
+      </c>
+      <c r="AD108" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE108" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG108" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT108" t="inlineStr"/>
+      <c r="AW108" t="inlineStr">
+        <is>
+          <t>Steve Daurer</t>
+        </is>
+      </c>
+      <c r="AX108" t="inlineStr">
+        <is>
+          <t>Steve Daurer</t>
+        </is>
+      </c>
+      <c r="AY108" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
